--- a/RegExpressWPFNET/Tools/ExportFeatureMatrix/FeatureMatrix.xlsx
+++ b/RegExpressWPFNET/Tools/ExportFeatureMatrix/FeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R595d863b64a3404d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R82efa051ec0f4847"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -213,139 +213,127 @@
     <x:t>Regex (Jeyemhex)</x:t>
   </x:si>
   <x:si>
-    <x:t>Escapes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bell, \u0007</x:t>
+    <x:t>Classes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Any, including or excepting newline (\n) depending on options</x:t>
   </x:si>
   <x:si>
     <x:t>+</x:t>
   </x:si>
   <x:si>
-    <x:t>\b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Backspace, \u0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Escape, \u001B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Form feed, \u000C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\n</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New line, \u000A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\r</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carriage return, \u000D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\t</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tab, \u0009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\v</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vertical tab, \u000B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\0nnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Octal, up to three digits after '\0'</x:t>
+    <x:t>\C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Single byte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Single code point</x:t>
   </x:si>
   <x:si>
     <x:t>+???</x:t>
   </x:si>
   <x:si>
-    <x:t>\nnn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Octal, up to three digits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Octal, two or three digits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\o{nn…}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Octal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\xXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hexadecimal code, two digits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\x{XX…}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hexadecimal code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\uXXXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hexadecimal code, four digits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\UXXXXXXXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hexadecimal code, eight digits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>???</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\u{XX…}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\U{XX…}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\cC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Control character</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\CC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\C-C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\N{…}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unicode name or 'U+code'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>\any</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Generic escape</x:t>
+    <x:t>\d, \D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Digit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\h, \H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hexadecimal character</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Horizontal space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\l, \L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lowercase character</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Any except '\n'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Any</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Line break</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\s, \S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\sx, \Sx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Syntax group; 'x' — group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\u, \U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uppercase character</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\v, \V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vertical space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\w, \W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Word character</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extended grapheme cluster</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\!c, \!\c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not; 'c' — character, '\c' — escaped character</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\pX, \PX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unicode property, X — short property name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>\p{…}, \P{…}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unicode property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[:class:]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Character class</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -920,29 +908,29 @@
       <x:c r="C5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F5" t="s">
-        <x:v>1</x:v>
+      <x:c r="D5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="H5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I5" t="s">
-        <x:v>1</x:v>
+      <x:c r="H5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="K5" t="s">
-        <x:v>1</x:v>
+      <x:c r="K5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L5" s="6" t="s">
         <x:v>64</x:v>
@@ -971,17 +959,17 @@
       <x:c r="T5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="U5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X5" t="s">
-        <x:v>1</x:v>
+      <x:c r="U5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="V5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="W5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="X5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Y5" s="6" t="s">
         <x:v>64</x:v>
@@ -995,11 +983,11 @@
       <x:c r="AB5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AC5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD5" t="s">
-        <x:v>1</x:v>
+      <x:c r="AC5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AD5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AE5" s="6" t="s">
         <x:v>64</x:v>
@@ -1016,17 +1004,17 @@
       <x:c r="AI5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AJ5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM5" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AK5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AL5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AM5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AN5" s="6" t="s">
         <x:v>64</x:v>
@@ -1046,8 +1034,8 @@
       <x:c r="AS5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AT5" t="s">
-        <x:v>1</x:v>
+      <x:c r="AT5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AU5" s="6" t="s">
         <x:v>64</x:v>
@@ -1064,20 +1052,20 @@
       <x:c r="AY5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AZ5" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BA5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BB5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD5" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BC5" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BD5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BE5" s="6" t="s">
         <x:v>64</x:v>
@@ -1085,8 +1073,8 @@
       <x:c r="BF5" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BG5" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG5" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -1108,8 +1096,8 @@
       <x:c r="F6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G6" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G6" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H6" t="s">
         <x:v>1</x:v>
@@ -1117,11 +1105,11 @@
       <x:c r="I6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K6" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="J6" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K6" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L6" t="s">
         <x:v>1</x:v>
@@ -1210,8 +1198,8 @@
       <x:c r="AN6" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AO6" t="s">
-        <x:v>1</x:v>
+      <x:c r="AO6" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AP6" t="s">
         <x:v>1</x:v>
@@ -1270,130 +1258,130 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B7" s="5" t="s">
+      <x:c r="C7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="M7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="T7" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="U7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN7" s="6" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="M7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="P7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Q7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="R7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="U7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Z7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AA7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AB7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AC7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AF7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AI7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AJ7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AO7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AP7" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AO7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP7" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AQ7" t="s">
         <x:v>1</x:v>
@@ -1401,14 +1389,14 @@
       <x:c r="AR7" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AS7" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AS7" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT7" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU7" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AU7" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV7" t="s">
         <x:v>1</x:v>
@@ -1425,8 +1413,8 @@
       <x:c r="AZ7" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BA7" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BA7" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB7" t="s">
         <x:v>1</x:v>
@@ -1437,11 +1425,11 @@
       <x:c r="BD7" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE7" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF7" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BE7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF7" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG7" t="s">
         <x:v>1</x:v>
@@ -1466,8 +1454,8 @@
       <x:c r="F8" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G8" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G8" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H8" t="s">
         <x:v>1</x:v>
@@ -1523,20 +1511,20 @@
       <x:c r="Y8" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="Z8" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AA8" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AB8" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="Z8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB8" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC8" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD8" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD8" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AE8" s="6" t="s">
         <x:v>64</x:v>
@@ -1607,14 +1595,14 @@
       <x:c r="BA8" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BB8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD8" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB8" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BC8" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BD8" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BE8" s="6" t="s">
         <x:v>64</x:v>
@@ -1622,8 +1610,8 @@
       <x:c r="BF8" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BG8" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG8" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -1633,11 +1621,11 @@
       <x:c r="B9" s="5" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="C9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" t="s">
         <x:v>1</x:v>
@@ -1645,8 +1633,8 @@
       <x:c r="F9" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H9" t="s">
         <x:v>1</x:v>
@@ -1654,38 +1642,38 @@
       <x:c r="I9" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="J9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K9" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="L9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="M9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="P9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Q9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="R9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="L9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U9" t="s">
         <x:v>1</x:v>
@@ -1702,14 +1690,14 @@
       <x:c r="Y9" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="Z9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AA9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AB9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="Z9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC9" t="s">
         <x:v>1</x:v>
@@ -1717,77 +1705,77 @@
       <x:c r="AD9" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AF9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AE9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH9" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AI9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AJ9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AL9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AN9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AO9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AP9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AQ9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AI9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS9" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AT9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AU9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AV9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AW9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BA9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BB9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AT9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC9" t="s">
         <x:v>1</x:v>
@@ -1795,11 +1783,11 @@
       <x:c r="BD9" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE9" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF9" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BE9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF9" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG9" t="s">
         <x:v>1</x:v>
@@ -1807,16 +1795,16 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="4" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="C10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E10" t="s">
         <x:v>1</x:v>
@@ -1824,8 +1812,8 @@
       <x:c r="F10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" t="s">
         <x:v>1</x:v>
@@ -1833,11 +1821,11 @@
       <x:c r="I10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="K10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="J10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L10" s="6" t="s">
         <x:v>64</x:v>
@@ -1878,17 +1866,17 @@
       <x:c r="X10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Z10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AA10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AB10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="Y10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC10" t="s">
         <x:v>1</x:v>
@@ -1896,32 +1884,32 @@
       <x:c r="AD10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AF10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AI10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AJ10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AL10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AE10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN10" s="6" t="s">
         <x:v>64</x:v>
@@ -1932,41 +1920,41 @@
       <x:c r="AP10" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AQ10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AT10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AQ10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AU10" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AV10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AW10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AV10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BA10" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BB10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BB10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC10" t="s">
         <x:v>1</x:v>
@@ -1974,11 +1962,11 @@
       <x:c r="BD10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE10" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF10" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BE10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF10" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG10" t="s">
         <x:v>1</x:v>
@@ -1986,16 +1974,16 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="4" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B11" s="5" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B11" s="5" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D11" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="C11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E11" t="s">
         <x:v>1</x:v>
@@ -2003,8 +1991,8 @@
       <x:c r="F11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G11" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G11" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H11" t="s">
         <x:v>1</x:v>
@@ -2012,14 +2000,14 @@
       <x:c r="I11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="K11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="L11" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="J11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L11" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M11" s="6" t="s">
         <x:v>64</x:v>
@@ -2057,17 +2045,17 @@
       <x:c r="X11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Z11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AA11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AB11" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="Y11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB11" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC11" t="s">
         <x:v>1</x:v>
@@ -2075,77 +2063,77 @@
       <x:c r="AD11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AF11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AI11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AJ11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AL11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AN11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AO11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AP11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AQ11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AT11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AU11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AV11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AW11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BA11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BB11" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AE11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB11" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC11" t="s">
         <x:v>1</x:v>
@@ -2153,11 +2141,11 @@
       <x:c r="BD11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE11" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF11" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BE11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF11" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG11" t="s">
         <x:v>1</x:v>
@@ -2165,16 +2153,16 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="4" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="B12" s="5" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="C12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E12" t="s">
         <x:v>1</x:v>
@@ -2182,8 +2170,8 @@
       <x:c r="F12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G12" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H12" t="s">
         <x:v>1</x:v>
@@ -2191,14 +2179,14 @@
       <x:c r="I12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="K12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="L12" t="s">
-        <x:v>1</x:v>
+      <x:c r="J12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L12" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M12" t="s">
         <x:v>1</x:v>
@@ -2215,14 +2203,14 @@
       <x:c r="Q12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="R12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T12" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="R12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U12" t="s">
         <x:v>1</x:v>
@@ -2254,74 +2242,74 @@
       <x:c r="AD12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AF12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AI12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AJ12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AL12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM12" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AE12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF12" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AG12" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AH12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AO12" t="s">
-        <x:v>1</x:v>
+      <x:c r="AO12" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AP12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AQ12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AT12" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AQ12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AU12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AV12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AW12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ12" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BA12" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA12" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BB12" t="s">
         <x:v>1</x:v>
@@ -2344,11 +2332,11 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="4" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B13" s="5" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="C13" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2379,44 +2367,44 @@
       <x:c r="L13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="P13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Q13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="R13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="U13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="V13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="W13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="X13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Y13" t="s">
-        <x:v>1</x:v>
+      <x:c r="M13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y13" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Z13" t="s">
         <x:v>1</x:v>
@@ -2436,11 +2424,11 @@
       <x:c r="AE13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF13" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG13" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF13" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AG13" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AH13" t="s">
         <x:v>1</x:v>
@@ -2466,8 +2454,8 @@
       <x:c r="AO13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AP13" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AP13" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AQ13" t="s">
         <x:v>1</x:v>
@@ -2475,17 +2463,17 @@
       <x:c r="AR13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AS13" t="s">
-        <x:v>1</x:v>
+      <x:c r="AS13" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AT13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU13" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AV13" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AU13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV13" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW13" t="s">
         <x:v>1</x:v>
@@ -2523,10 +2511,10 @@
     </x:row>
     <x:row r="14">
       <x:c r="A14" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C14" t="s">
         <x:v>1</x:v>
@@ -2540,8 +2528,8 @@
       <x:c r="F14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G14" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="G14" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H14" t="s">
         <x:v>1</x:v>
@@ -2555,23 +2543,23 @@
       <x:c r="K14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q14" t="s">
-        <x:v>1</x:v>
+      <x:c r="L14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="M14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q14" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="R14" t="s">
         <x:v>1</x:v>
@@ -2594,8 +2582,8 @@
       <x:c r="X14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y14" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y14" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Z14" t="s">
         <x:v>1</x:v>
@@ -2615,14 +2603,14 @@
       <x:c r="AE14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH14" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AG14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AH14" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AI14" t="s">
         <x:v>1</x:v>
@@ -2636,20 +2624,20 @@
       <x:c r="AL14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AM14" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AM14" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AO14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ14" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AO14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AP14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AQ14" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AR14" t="s">
         <x:v>1</x:v>
@@ -2660,8 +2648,8 @@
       <x:c r="AT14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU14" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU14" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AV14" t="s">
         <x:v>1</x:v>
@@ -2669,17 +2657,17 @@
       <x:c r="AW14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY14" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX14" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AY14" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AZ14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BA14" t="s">
-        <x:v>1</x:v>
+      <x:c r="BA14" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BB14" t="s">
         <x:v>1</x:v>
@@ -2705,13 +2693,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D15" t="s">
-        <x:v>1</x:v>
+      <x:c r="D15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E15" t="s">
         <x:v>1</x:v>
@@ -2731,35 +2719,35 @@
       <x:c r="J15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="K15" t="s">
-        <x:v>1</x:v>
+      <x:c r="K15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="M15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T15" t="s">
-        <x:v>1</x:v>
+      <x:c r="M15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="T15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="U15" t="s">
         <x:v>1</x:v>
@@ -2774,7 +2762,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Y15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Z15" t="s">
         <x:v>1</x:v>
@@ -2788,23 +2776,23 @@
       <x:c r="AC15" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD15" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AE15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AF15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AG15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AH15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AI15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AJ15" s="6" t="s">
         <x:v>64</x:v>
@@ -2815,8 +2803,8 @@
       <x:c r="AL15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AM15" t="s">
-        <x:v>1</x:v>
+      <x:c r="AM15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AN15" s="6" t="s">
         <x:v>64</x:v>
@@ -2824,68 +2812,68 @@
       <x:c r="AO15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AP15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU15" t="s">
-        <x:v>1</x:v>
+      <x:c r="AP15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AQ15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AR15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AS15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AT15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AU15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AV15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="AW15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AX15" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AY15" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AZ15" t="s">
-        <x:v>1</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AZ15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BA15" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BB15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF15" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG15" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BC15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BD15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BE15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BF15" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BG15" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B16" s="5" t="s">
-        <x:v>86</x:v>
-      </x:c>
       <x:c r="C16" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2913,8 +2901,8 @@
       <x:c r="K16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L16" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="L16" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M16" t="s">
         <x:v>1</x:v>
@@ -2949,11 +2937,11 @@
       <x:c r="W16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X16" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y16" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="X16" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Y16" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z16" t="s">
         <x:v>1</x:v>
@@ -2973,14 +2961,14 @@
       <x:c r="AE16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF16" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG16" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH16" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AF16" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG16" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH16" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI16" t="s">
         <x:v>1</x:v>
@@ -2997,11 +2985,11 @@
       <x:c r="AM16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN16" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AO16" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AN16" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO16" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AP16" t="s">
         <x:v>1</x:v>
@@ -3036,8 +3024,8 @@
       <x:c r="AZ16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BA16" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BA16" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB16" t="s">
         <x:v>1</x:v>
@@ -3060,16 +3048,16 @@
     </x:row>
     <x:row r="17">
       <x:c r="A17" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B17" s="5" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D17" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="C17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E17" t="s">
         <x:v>1</x:v>
@@ -3086,14 +3074,14 @@
       <x:c r="I17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="K17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="L17" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="J17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L17" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M17" s="6" t="s">
         <x:v>64</x:v>
@@ -3131,8 +3119,8 @@
       <x:c r="X17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y17" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="Y17" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z17" t="s">
         <x:v>1</x:v>
@@ -3149,77 +3137,77 @@
       <x:c r="AD17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE17" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AF17" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG17" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AH17" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AI17" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AL17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AN17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AO17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AP17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AQ17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AT17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AU17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AV17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AW17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BA17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BB17" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AE17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB17" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC17" t="s">
         <x:v>1</x:v>
@@ -3227,23 +3215,23 @@
       <x:c r="BD17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF17" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BG17" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BE17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG17" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="B18" s="5" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="C18" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3265,14 +3253,14 @@
       <x:c r="I18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="J18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L18" t="s">
-        <x:v>1</x:v>
+      <x:c r="L18" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M18" s="6" t="s">
         <x:v>64</x:v>
@@ -3289,14 +3277,14 @@
       <x:c r="Q18" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="R18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="R18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U18" t="s">
         <x:v>1</x:v>
@@ -3310,8 +3298,8 @@
       <x:c r="X18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="Y18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z18" t="s">
         <x:v>1</x:v>
@@ -3331,14 +3319,14 @@
       <x:c r="AE18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AF18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI18" t="s">
         <x:v>1</x:v>
@@ -3364,14 +3352,14 @@
       <x:c r="AP18" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AQ18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AQ18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT18" t="s">
         <x:v>1</x:v>
@@ -3379,8 +3367,8 @@
       <x:c r="AU18" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AV18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AV18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW18" t="s">
         <x:v>1</x:v>
@@ -3397,8 +3385,8 @@
       <x:c r="BA18" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BB18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BB18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC18" t="s">
         <x:v>1</x:v>
@@ -3406,11 +3394,11 @@
       <x:c r="BD18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE18" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF18" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="BE18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF18" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG18" t="s">
         <x:v>1</x:v>
@@ -3418,11 +3406,11 @@
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B19" s="5" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="C19" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -3444,38 +3432,38 @@
       <x:c r="I19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K19" t="s">
-        <x:v>1</x:v>
+      <x:c r="J19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L19" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="M19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T19" t="s">
-        <x:v>1</x:v>
+      <x:c r="M19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="T19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="U19" t="s">
         <x:v>1</x:v>
@@ -3486,8 +3474,8 @@
       <x:c r="W19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X19" t="s">
-        <x:v>1</x:v>
+      <x:c r="X19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Y19" s="6" t="s">
         <x:v>64</x:v>
@@ -3501,20 +3489,20 @@
       <x:c r="AB19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AC19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD19" t="s">
-        <x:v>1</x:v>
+      <x:c r="AC19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AD19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AE19" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AF19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG19" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AG19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AH19" s="6" t="s">
         <x:v>64</x:v>
@@ -3534,11 +3522,11 @@
       <x:c r="AM19" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AN19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO19" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AO19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AP19" s="6" t="s">
         <x:v>64</x:v>
@@ -3558,8 +3546,8 @@
       <x:c r="AU19" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AV19" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AW19" s="6" t="s">
         <x:v>64</x:v>
@@ -3573,35 +3561,35 @@
       <x:c r="AZ19" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="BA19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG19" t="s">
-        <x:v>1</x:v>
+      <x:c r="BA19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BB19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BC19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BD19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BE19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BF19" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BG19" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="4" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="5" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B20" s="5" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="C20" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3629,32 +3617,32 @@
       <x:c r="K20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T20" t="s">
-        <x:v>1</x:v>
+      <x:c r="L20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="M20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="T20" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="U20" t="s">
         <x:v>1</x:v>
@@ -3668,8 +3656,8 @@
       <x:c r="X20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y20" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y20" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Z20" t="s">
         <x:v>1</x:v>
@@ -3689,17 +3677,17 @@
       <x:c r="AE20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI20" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AF20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AG20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AH20" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AI20" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ20" t="s">
         <x:v>1</x:v>
@@ -3716,32 +3704,32 @@
       <x:c r="AN20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AO20" t="s">
-        <x:v>1</x:v>
+      <x:c r="AO20" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AP20" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AQ20" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR20" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AQ20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR20" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS20" t="s">
-        <x:v>95</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU20" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU20" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AV20" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW20" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AW20" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AX20" s="6" t="s">
         <x:v>64</x:v>
@@ -3749,11 +3737,11 @@
       <x:c r="AY20" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AZ20" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BA20" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA20" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BB20" t="s">
         <x:v>1</x:v>
@@ -3776,10 +3764,10 @@
     </x:row>
     <x:row r="21">
       <x:c r="A21" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B21" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C21" t="s">
         <x:v>1</x:v>
@@ -3805,11 +3793,11 @@
       <x:c r="J21" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K21" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L21" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="K21" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L21" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M21" t="s">
         <x:v>1</x:v>
@@ -3880,11 +3868,11 @@
       <x:c r="AI21" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ21" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK21" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AJ21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK21" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AL21" t="s">
         <x:v>1</x:v>
@@ -3901,17 +3889,17 @@
       <x:c r="AP21" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AQ21" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR21" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS21" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AT21" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AQ21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT21" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AU21" t="s">
         <x:v>1</x:v>
@@ -3955,11 +3943,11 @@
     </x:row>
     <x:row r="22">
       <x:c r="A22" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B22" s="5" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="C22" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3981,38 +3969,38 @@
       <x:c r="I22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J22" t="s">
-        <x:v>1</x:v>
+      <x:c r="J22" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T22" t="s">
-        <x:v>1</x:v>
+      <x:c r="L22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="M22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="T22" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="U22" t="s">
         <x:v>1</x:v>
@@ -4071,11 +4059,11 @@
       <x:c r="AM22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO22" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AO22" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AP22" t="s">
         <x:v>1</x:v>
@@ -4083,8 +4071,8 @@
       <x:c r="AQ22" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AR22" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AR22" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS22" s="6" t="s">
         <x:v>64</x:v>
@@ -4092,26 +4080,26 @@
       <x:c r="AT22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV22" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AV22" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AW22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA22" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AY22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AZ22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BA22" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="BB22" t="s">
         <x:v>1</x:v>
@@ -4142,8 +4130,8 @@
       <x:c r="C23" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D23" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="D23" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E23" t="s">
         <x:v>1</x:v>
@@ -4160,8 +4148,8 @@
       <x:c r="I23" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J23" t="s">
-        <x:v>1</x:v>
+      <x:c r="J23" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K23" t="s">
         <x:v>1</x:v>
@@ -4244,11 +4232,11 @@
       <x:c r="AK23" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AL23" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM23" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AL23" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM23" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN23" s="6" t="s">
         <x:v>64</x:v>
@@ -4259,32 +4247,32 @@
       <x:c r="AP23" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AQ23" t="s">
-        <x:v>1</x:v>
+      <x:c r="AQ23" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AR23" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AS23" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT23" t="s">
-        <x:v>95</x:v>
+      <x:c r="AS23" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AT23" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AU23" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="AV23" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV23" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AW23" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX23" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY23" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX23" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AY23" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AZ23" s="6" t="s">
         <x:v>64</x:v>
@@ -4316,7 +4304,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C24" t="s">
         <x:v>1</x:v>
@@ -4426,8 +4414,8 @@
       <x:c r="AL24" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AM24" s="6" t="s">
-        <x:v>64</x:v>
+      <x:c r="AM24" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN24" t="s">
         <x:v>1</x:v>
@@ -4435,8 +4423,8 @@
       <x:c r="AO24" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AP24" t="s">
-        <x:v>1</x:v>
+      <x:c r="AP24" s="6" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="AQ24" t="s">
         <x:v>1</x:v>
@@ -4491,718 +4479,181 @@
       </x:c>
     </x:row>
     <x:row r="25">
-      <x:c r="A25" s="4" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B25" s="5" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y25" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Z25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH25" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AI25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26">
-      <x:c r="A26" s="4" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B26" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="P26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Q26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="R26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="U26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AQ26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AV26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY26" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA26" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BB26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG26" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27">
-      <x:c r="A27" s="4" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B27" s="5" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="K27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="L27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="M27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="N27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="P27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Q27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="R27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="S27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="U27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="V27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="W27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="X27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Y27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="Z27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AA27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AB27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AC27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AD27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AE27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AF27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AG27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AH27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AI27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AJ27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AK27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AL27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AM27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AN27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AO27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AP27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AQ27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AR27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AS27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AT27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AU27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AV27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AW27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AX27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AY27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="AZ27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BA27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BB27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BC27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BD27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BE27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BF27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="BG27" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28">
-      <x:c r="A28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF28" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG28" s="7" t="s">
+      <x:c r="A25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF25" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG25" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
